--- a/AzureMLExcelAddInStarterKit/bin/Debug/Book1.xlsx
+++ b/AzureMLExcelAddInStarterKit/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R6a4d8e05a43547e8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R1418e3f05eb14ed6"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="525" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re9ef4919bdd64f71"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0270a3eed37946be"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{a0d63514-d55d-4995-8460-6417bc7b2255}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{715f0221-8948-46f9-827b-8c563b6335c4}">
   <we:reference id="62c75cab-03c5-439c-84db-cf4212f2e74a" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>
